--- a/Docs/Отчет_сверка1.xlsx
+++ b/Docs/Отчет_сверка1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\E\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy.Skorb\Source\Repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,15 +87,6 @@
     <t>КУ:</t>
   </si>
   <si>
-    <t>ООО "Гринвуд"</t>
-  </si>
-  <si>
-    <t>ООО "ЕвроЛогистик"</t>
-  </si>
-  <si>
-    <t>01.01.2021..31.03.2021</t>
-  </si>
-  <si>
     <t>18.10.2021</t>
   </si>
   <si>
@@ -487,13 +478,22 @@
   </si>
   <si>
     <t>Пиво. "SunInBev.Ловенбрау" ст/бут /20</t>
+  </si>
+  <si>
+    <t>&lt;KU_graph.Date_from&gt; - &lt;KU_graph.Date_to&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Entities.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Vendors.Name&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -548,8 +548,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +586,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -911,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1003,6 +1015,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1314,7 +1328,7 @@
       <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1362,31 +1376,31 @@
         <v>1</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>22</v>
+      <c r="F5" s="49" t="s">
+        <v>153</v>
       </c>
       <c r="G5" s="4"/>
       <c r="L5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>21</v>
+      <c r="F6" s="49" t="s">
+        <v>154</v>
       </c>
       <c r="G6" s="4"/>
       <c r="L6" s="4"/>
@@ -1397,8 +1411,8 @@
       <c r="E7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>25</v>
+      <c r="F7" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="4"/>
       <c r="L7" s="4"/>
@@ -1504,22 +1518,22 @@
     </row>
     <row r="11" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="F11" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G11" s="38">
         <v>2840</v>
@@ -1569,22 +1583,22 @@
     </row>
     <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="38">
         <v>7872</v>
@@ -1634,22 +1648,22 @@
     </row>
     <row r="13" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="38">
         <v>3264</v>
@@ -1699,22 +1713,22 @@
     </row>
     <row r="14" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G14" s="38">
         <v>920</v>
@@ -1764,22 +1778,22 @@
     </row>
     <row r="15" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G15" s="38">
         <v>1128</v>
@@ -1829,22 +1843,22 @@
     </row>
     <row r="16" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="38">
         <v>936</v>
@@ -1894,22 +1908,22 @@
     </row>
     <row r="17" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G17" s="38">
         <v>316</v>
@@ -1959,22 +1973,22 @@
     </row>
     <row r="18" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G18" s="38">
         <v>1536</v>
@@ -2024,22 +2038,22 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G19" s="38">
         <v>1656</v>
@@ -2089,22 +2103,22 @@
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G20" s="38">
         <v>912</v>
@@ -2154,22 +2168,22 @@
     </row>
     <row r="21" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="38">
         <v>4416</v>
@@ -2219,22 +2233,22 @@
     </row>
     <row r="22" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="38">
         <v>816</v>
@@ -2284,22 +2298,22 @@
     </row>
     <row r="23" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="38">
         <v>624</v>
@@ -2349,22 +2363,22 @@
     </row>
     <row r="24" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" s="38">
         <v>12</v>
@@ -2414,22 +2428,22 @@
     </row>
     <row r="25" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G25" s="38">
         <v>12</v>
@@ -2479,22 +2493,22 @@
     </row>
     <row r="26" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" s="38">
         <v>12</v>
@@ -2544,22 +2558,22 @@
     </row>
     <row r="27" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" s="38">
         <v>2664</v>
@@ -2609,22 +2623,22 @@
     </row>
     <row r="28" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G28" s="38">
         <v>22488</v>
@@ -2674,22 +2688,22 @@
     </row>
     <row r="29" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G29" s="38">
         <v>960</v>
@@ -2739,22 +2753,22 @@
     </row>
     <row r="30" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="38">
         <v>4152</v>
@@ -2804,22 +2818,22 @@
     </row>
     <row r="31" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G31" s="38">
         <v>3680</v>
@@ -2869,22 +2883,22 @@
     </row>
     <row r="32" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" s="38">
         <v>216</v>
@@ -2934,22 +2948,22 @@
     </row>
     <row r="33" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G33" s="38">
         <v>840</v>
@@ -2999,22 +3013,22 @@
     </row>
     <row r="34" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G34" s="38">
         <v>8256</v>
@@ -3064,22 +3078,22 @@
     </row>
     <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" s="38">
         <v>6924</v>
@@ -3129,22 +3143,22 @@
     </row>
     <row r="36" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G36" s="38">
         <v>20616</v>
@@ -3194,22 +3208,22 @@
     </row>
     <row r="37" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G37" s="38">
         <v>9054</v>
@@ -3259,22 +3273,22 @@
     </row>
     <row r="38" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G38" s="38">
         <v>32880</v>
@@ -3324,22 +3338,22 @@
     </row>
     <row r="39" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G39" s="38">
         <v>9552</v>
@@ -3389,22 +3403,22 @@
     </row>
     <row r="40" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G40" s="38">
         <v>28296</v>
@@ -3454,22 +3468,22 @@
     </row>
     <row r="41" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41" s="38">
         <v>4728</v>
@@ -3519,22 +3533,22 @@
     </row>
     <row r="42" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G42" s="38">
         <v>6388</v>
@@ -3584,22 +3598,22 @@
     </row>
     <row r="43" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G43" s="38">
         <v>4920</v>
@@ -3649,22 +3663,22 @@
     </row>
     <row r="44" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G44" s="38">
         <v>4752</v>
@@ -3714,22 +3728,22 @@
     </row>
     <row r="45" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G45" s="38">
         <v>3576</v>
@@ -3779,22 +3793,22 @@
     </row>
     <row r="46" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G46" s="38">
         <v>36984</v>
@@ -3844,22 +3858,22 @@
     </row>
     <row r="47" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G47" s="38">
         <v>16512</v>
@@ -3909,22 +3923,22 @@
     </row>
     <row r="48" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G48" s="38">
         <v>3500</v>
@@ -3974,22 +3988,22 @@
     </row>
     <row r="49" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C49" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="E49" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G49" s="38">
         <v>3160</v>
@@ -4039,22 +4053,22 @@
     </row>
     <row r="50" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G50" s="38">
         <v>33320</v>
@@ -4104,22 +4118,22 @@
     </row>
     <row r="51" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G51" s="38">
         <v>36480</v>
@@ -4169,22 +4183,22 @@
     </row>
     <row r="52" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G52" s="38">
         <v>55668</v>
@@ -4234,22 +4248,22 @@
     </row>
     <row r="53" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G53" s="38">
         <v>4680</v>
@@ -4299,22 +4313,22 @@
     </row>
     <row r="54" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G54" s="38">
         <v>41800</v>
@@ -4364,22 +4378,22 @@
     </row>
     <row r="55" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G55" s="38">
         <v>860</v>
@@ -4429,22 +4443,22 @@
     </row>
     <row r="56" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G56" s="38">
         <v>6720</v>
@@ -4494,22 +4508,22 @@
     </row>
     <row r="57" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="38">
         <v>18820</v>
@@ -4559,22 +4573,22 @@
     </row>
     <row r="58" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G58" s="38">
         <v>10940</v>
@@ -4624,22 +4638,22 @@
     </row>
     <row r="59" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G59" s="38">
         <v>4656</v>
@@ -4689,22 +4703,22 @@
     </row>
     <row r="60" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G60" s="38">
         <v>9020</v>
@@ -4754,22 +4768,22 @@
     </row>
     <row r="61" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G61" s="38">
         <v>8200</v>
@@ -4819,22 +4833,22 @@
     </row>
     <row r="62" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G62" s="38">
         <v>1380</v>
@@ -4884,22 +4898,22 @@
     </row>
     <row r="63" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G63" s="38">
         <v>18940</v>
@@ -4949,22 +4963,22 @@
     </row>
     <row r="64" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G64" s="38">
         <v>15200</v>
@@ -5014,22 +5028,22 @@
     </row>
     <row r="65" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G65" s="38">
         <v>9120</v>
@@ -5079,22 +5093,22 @@
     </row>
     <row r="66" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G66" s="38">
         <v>2200</v>
@@ -5144,22 +5158,22 @@
     </row>
     <row r="67" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G67" s="38">
         <v>1560</v>
@@ -5209,22 +5223,22 @@
     </row>
     <row r="68" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G68" s="38">
         <v>11240</v>
@@ -5274,22 +5288,22 @@
     </row>
     <row r="69" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G69" s="38">
         <v>1800</v>
@@ -5339,22 +5353,22 @@
     </row>
     <row r="70" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G70" s="38">
         <v>8540</v>

--- a/Docs/Отчет_сверка1.xlsx
+++ b/Docs/Отчет_сверка1.xlsx
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -448,6 +448,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="dashed">
         <color indexed="64"/>
@@ -455,79 +494,53 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dashed">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,19 +558,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,10 +570,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,11 +578,16 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,42 +615,42 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -960,7 +962,7 @@
       <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -994,20 +996,20 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D3" s="26"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D4" s="1"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="4"/>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="4"/>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="4"/>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="4"/>
@@ -1061,36 +1063,36 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37" t="s">
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="39"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1099,131 +1101,130 @@
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="50"/>
       <c r="R11" s="53"/>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
+      <c r="U11" s="53"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31">
-        <v>0</v>
-      </c>
-      <c r="L12" s="29">
-        <v>0</v>
-      </c>
-      <c r="M12" s="30">
-        <v>0</v>
-      </c>
-      <c r="N12" s="30">
-        <v>0</v>
-      </c>
-      <c r="O12" s="30">
-        <v>0</v>
-      </c>
-      <c r="P12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="55" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0</v>
+      </c>
+      <c r="I12" s="47">
+        <v>0</v>
+      </c>
+      <c r="J12" s="47">
+        <v>0</v>
+      </c>
+      <c r="K12" s="48">
+        <v>0</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0</v>
+      </c>
+      <c r="M12" s="47">
+        <v>0</v>
+      </c>
+      <c r="N12" s="47">
+        <v>0</v>
+      </c>
+      <c r="O12" s="47">
+        <v>0</v>
+      </c>
+      <c r="P12" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="30">
-        <v>0</v>
-      </c>
-      <c r="T12" s="30">
-        <v>0</v>
-      </c>
-      <c r="U12" s="31">
+      <c r="S12" s="23">
+        <v>0</v>
+      </c>
+      <c r="T12" s="23">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Отчет_сверка1.xlsx
+++ b/Docs/Отчет_сверка1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>"Отчет расчетов по поставщику"</t>
   </si>
@@ -90,9 +90,6 @@
     <t>18.10.2021</t>
   </si>
   <si>
-    <t>КУ000071720</t>
-  </si>
-  <si>
     <t>&lt;KU_graph.Date_from&gt; - &lt;KU_graph.Date_to&gt;</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>&lt;Sum&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Table1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;num&gt;</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +211,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -581,40 +578,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,6 +619,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,7 +961,7 @@
       <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
@@ -1022,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4"/>
       <c r="L5" s="4"/>
@@ -1034,19 +1033,19 @@
         <v>3</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4"/>
       <c r="L6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>22</v>
+      <c r="F7" s="53" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="L7" s="4"/>
@@ -1063,27 +1062,27 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34" t="s">
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37" t="s">
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="39"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1104,34 +1103,34 @@
       <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="35" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="13" t="s">
@@ -1150,30 +1149,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
+    <row r="11" spans="1:21" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -1182,41 +1183,41 @@
         <v>12</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="46">
-        <v>0</v>
-      </c>
-      <c r="H12" s="47">
-        <v>0</v>
-      </c>
-      <c r="I12" s="47">
-        <v>0</v>
-      </c>
-      <c r="J12" s="47">
-        <v>0</v>
-      </c>
-      <c r="K12" s="48">
-        <v>0</v>
-      </c>
-      <c r="L12" s="46">
-        <v>0</v>
-      </c>
-      <c r="M12" s="47">
-        <v>0</v>
-      </c>
-      <c r="N12" s="47">
-        <v>0</v>
-      </c>
-      <c r="O12" s="47">
-        <v>0</v>
-      </c>
-      <c r="P12" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="29" t="s">
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
+        <v>0</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0</v>
+      </c>
+      <c r="P12" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="29" t="s">
         <v>27</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>28</v>
       </c>
       <c r="S12" s="23">
         <v>0</v>

--- a/Docs/Отчет_сверка1.xlsx
+++ b/Docs/Отчет_сверка1.xlsx
@@ -620,6 +620,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,9 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +958,10 @@
   <dimension ref="A2:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1044,7 @@
       <c r="E7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4"/>
@@ -1062,27 +1062,27 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50" t="s">
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">

--- a/Docs/Отчет_сверка1.xlsx
+++ b/Docs/Отчет_сверка1.xlsx
@@ -87,9 +87,6 @@
     <t>КУ:</t>
   </si>
   <si>
-    <t>18.10.2021</t>
-  </si>
-  <si>
     <t>&lt;KU_graph.Date_from&gt; - &lt;KU_graph.Date_to&gt;</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Doc.Date.Now&gt;</t>
   </si>
 </sst>
 </file>
@@ -958,10 +958,10 @@
   <dimension ref="A2:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4"/>
       <c r="L5" s="4"/>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4"/>
       <c r="L6" s="4"/>
@@ -1045,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4"/>
       <c r="L7" s="4"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -1169,7 +1169,7 @@
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="29" t="s">
         <v>26</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>27</v>
       </c>
       <c r="S12" s="23">
         <v>0</v>

--- a/Docs/Отчет_сверка1.xlsx
+++ b/Docs/Отчет_сверка1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy.Skorb\source\repos\Gespee1\UKUP\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Source\Repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,8 +582,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,6 +647,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +961,10 @@
   <dimension ref="A2:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1047,7 @@
       <c r="E7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="4"/>
@@ -1062,27 +1065,27 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1103,34 +1106,34 @@
       <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="33" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="13" t="s">
@@ -1156,25 +1159,25 @@
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="39"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="28" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -1183,40 +1186,40 @@
         <v>12</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="36">
-        <v>0</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37">
-        <v>0</v>
-      </c>
-      <c r="J12" s="37">
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <v>0</v>
-      </c>
-      <c r="L12" s="36">
-        <v>0</v>
-      </c>
-      <c r="M12" s="37">
-        <v>0</v>
-      </c>
-      <c r="N12" s="37">
-        <v>0</v>
-      </c>
-      <c r="O12" s="37">
-        <v>0</v>
-      </c>
-      <c r="P12" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="28" t="s">
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35">
+        <v>0</v>
+      </c>
+      <c r="N12" s="35">
+        <v>0</v>
+      </c>
+      <c r="O12" s="35">
+        <v>0</v>
+      </c>
+      <c r="P12" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="52" t="s">
         <v>26</v>
       </c>
       <c r="S12" s="23">
